--- a/results/points_posttest.xlsx
+++ b/results/points_posttest.xlsx
@@ -476,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
